--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/2CD/2CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1DD7BBE-EABA-455E-915C-11612D03386D}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A02D09C9-BE82-4AB1-90E3-E12DF83FC45A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -197,6 +197,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -465,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,7 +856,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,9 +921,12 @@
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -929,9 +936,12 @@
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P7" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -941,6 +951,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -953,9 +966,12 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -965,9 +981,12 @@
       <c r="B6">
         <v>0.5</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -977,9 +996,12 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/2CD/2CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A02D09C9-BE82-4AB1-90E3-E12DF83FC45A}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB9D5D5-C518-4640-B66F-EF08496102B9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -201,6 +201,10 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -469,17 +473,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,76 +521,94 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5">
         <v>0.25</v>
       </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -600,15 +622,15 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,11 +668,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="L2">
@@ -658,64 +683,79 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>0.8</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -728,15 +768,15 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,76 +814,94 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4">
         <v>0.75</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6">
         <v>0.75</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -855,16 +913,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -924,12 +982,15 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -939,12 +1000,15 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P7" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -954,12 +1018,15 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -969,12 +1036,15 @@
       <c r="C5">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -984,12 +1054,15 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -999,9 +1072,12 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/2CD/2CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB9D5D5-C518-4640-B66F-EF08496102B9}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{653FC436-065F-7E4C-8E6A-C2D8C39C3B6B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>Alumnos</t>
   </si>
@@ -124,6 +135,12 @@
   </si>
   <si>
     <t>Javier Janeiro</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -182,30 +199,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,16 +467,16 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -531,12 +524,15 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -545,13 +541,16 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>62.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -566,7 +565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -581,7 +580,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -596,7 +595,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -606,9 +605,12 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
   </sheetData>
@@ -622,15 +624,15 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -683,7 +685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -698,7 +700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -708,12 +710,15 @@
       <c r="C4">
         <v>0.8</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -728,7 +733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -743,7 +748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -768,15 +773,15 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -824,12 +829,18 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -839,12 +850,15 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -854,12 +868,18 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -869,12 +889,15 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -884,12 +907,21 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -899,9 +931,12 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
   </sheetData>
@@ -914,15 +949,15 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -985,12 +1020,15 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1003,12 +1041,15 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P7" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1021,12 +1062,15 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1039,12 +1083,15 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1062,7 +1109,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1075,9 +1122,12 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/2CD/2CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{653FC436-065F-7E4C-8E6A-C2D8C39C3B6B}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C68230F1-4224-4055-A1F3-2C63F353F5AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -77,6 +77,27 @@
     <t>Resultados</t>
   </si>
   <si>
+    <t>David Tsegave</t>
+  </si>
+  <si>
+    <t>Juan Pablo Alfaya</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>Alexandre Martínez</t>
+  </si>
+  <si>
+    <t>Ruth de la Fuente</t>
+  </si>
+  <si>
+    <t>Alexia Torres</t>
+  </si>
+  <si>
+    <t>Javier Janeiro</t>
+  </si>
+  <si>
     <t>T1</t>
   </si>
   <si>
@@ -117,27 +138,6 @@
   </si>
   <si>
     <t>T14</t>
-  </si>
-  <si>
-    <t>David Tsegave</t>
-  </si>
-  <si>
-    <t>Juan Pablo Alfaya</t>
-  </si>
-  <si>
-    <t>Alexandre Martínez</t>
-  </si>
-  <si>
-    <t>Ruth de la Fuente</t>
-  </si>
-  <si>
-    <t>Alexia Torres</t>
-  </si>
-  <si>
-    <t>Javier Janeiro</t>
-  </si>
-  <si>
-    <t>0.75</t>
   </si>
   <si>
     <t>0.5</t>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,13 +470,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,9 +514,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -532,9 +532,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>62.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -565,9 +565,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -580,9 +580,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0.25</v>
@@ -595,9 +595,9 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -627,12 +627,12 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,9 +670,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -685,9 +685,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -700,9 +700,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -718,9 +718,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -733,9 +733,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -748,9 +748,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -772,16 +772,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,9 +819,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -835,14 +835,20 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -853,14 +859,17 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.75</v>
@@ -874,14 +883,20 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -892,14 +907,20 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0.75</v>
@@ -916,14 +937,17 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79.166666666666657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -934,9 +958,12 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
@@ -948,68 +975,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1028,9 +1055,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1049,9 +1076,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1070,9 +1097,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1091,9 +1118,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -1109,9 +1136,9 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/2CD/2CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C68230F1-4224-4055-A1F3-2C63F353F5AA}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44FD8F6-8102-4848-B2D2-D61DE7772657}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -147,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +188,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,13 +463,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -532,7 +525,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -550,7 +543,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -565,7 +558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -580,7 +573,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -595,7 +588,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -624,15 +617,15 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -685,7 +678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -695,12 +688,18 @@
       <c r="C3">
         <v>0.8</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -718,7 +717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -733,7 +732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -743,12 +742,15 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -773,15 +775,15 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -846,7 +848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -867,7 +869,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -889,12 +891,15 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>67.857142857142861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -918,7 +923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -945,7 +950,7 @@
         <v>79.166666666666657</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -979,12 +984,12 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/2CD/2CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44FD8F6-8102-4848-B2D2-D61DE7772657}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7D6BAA-6B6C-4F80-ACD9-5DAFF8BF836C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,6 +191,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -775,7 +779,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,9 +970,12 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/2CD/2CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7D6BAA-6B6C-4F80-ACD9-5DAFF8BF836C}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0016B5-F9FB-41CB-B8A6-7B51E80C9610}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,9 +524,15 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -542,9 +548,15 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>62.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -557,9 +569,15 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -572,9 +590,12 @@
       <c r="C5">
         <v>0.5</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>58.333333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -587,9 +608,15 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -605,9 +632,15 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -778,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,9 +901,12 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>56.25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -898,9 +934,12 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>67.857142857142861</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -988,7 +1027,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1062,9 +1101,12 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -1083,9 +1125,12 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P7" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -1104,6 +1149,9 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1125,9 +1173,12 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1143,9 +1194,12 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1164,9 +1218,12 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
